--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_16_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_16_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1768055.906042411</v>
+        <v>1746307.426300697</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12062936.15886391</v>
+        <v>12062936.15886392</v>
       </c>
     </row>
     <row r="8">
@@ -1390,7 +1390,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>136.3896895755416</v>
+        <v>349.4328115444926</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1469,7 +1469,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,10 +1496,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734107401</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T12" t="n">
         <v>190.7165703189231</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>177.4950400571896</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>114.4746605491562</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1587,7 +1587,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1618,13 +1618,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>105.0023863360944</v>
+        <v>205.1127822067375</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1660,13 +1660,13 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1767,25 +1767,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>101.4887703764016</v>
       </c>
       <c r="H16" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>60.08838152387979</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,16 +1815,16 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1852,10 +1852,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>43.58035547795976</v>
+        <v>116.5631275042195</v>
       </c>
       <c r="G17" t="n">
         <v>410.9217256534534</v>
@@ -1897,10 +1897,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>2.308339682493533</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2016,10 +2016,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>116.9402131039062</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
@@ -2061,10 +2061,10 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2083,10 +2083,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>329.8144471918069</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2095,13 +2095,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>410.9217256534534</v>
+        <v>142.6227432834652</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2134,19 +2134,19 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2180,7 +2180,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247721</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2238,25 +2238,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>163.6898441249714</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>96.00096860031985</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2295,10 +2295,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2317,10 +2317,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>141.9797376034124</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2329,16 +2329,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>410.9217256534534</v>
+        <v>328.0427458826101</v>
       </c>
       <c r="H23" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2377,10 +2377,10 @@
         <v>250.995171958902</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2478,7 +2478,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>126.3181946824974</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -2496,7 +2496,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,10 +2526,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2538,13 +2538,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>114.2656173771021</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>109.1877617881758</v>
+        <v>31.23712159276657</v>
       </c>
       <c r="T26" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>78.78083674902027</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2721,19 +2721,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,25 +2760,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>100.3361710182171</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>133.0331668321747</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>367.4218157530139</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2809,7 +2809,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2845,22 +2845,22 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>259.7459865368295</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2891,7 +2891,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247721</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2955,19 +2955,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>74.5703325417651</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>173.626889274476</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3043,10 +3043,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292595</v>
@@ -3091,13 +3091,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>209.7083496784893</v>
+        <v>260.1478989722385</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3195,10 +3195,10 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>189.7690253314419</v>
@@ -3243,10 +3243,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>270.0697021486467</v>
       </c>
       <c r="V34" t="n">
-        <v>73.79299727940909</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3271,13 +3271,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>410.9217256534534</v>
@@ -3286,7 +3286,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>26.89854620009008</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>203.9179701396201</v>
@@ -3325,13 +3325,13 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>39.32117841962576</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3365,7 +3365,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3441,10 +3441,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>156.8179111106426</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3486,13 +3486,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>203.1977700471494</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3505,25 +3505,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>24.27311936184015</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>43.83162758969713</v>
       </c>
     </row>
     <row r="39">
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>9.832771274810503</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
         <v>219.5489492761692</v>
@@ -3723,13 +3723,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>14.20241529279367</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3742,13 +3742,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>30.96855708844712</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>325.5519904991517</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3796,10 +3796,10 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3903,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,25 +3948,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>216.127124068774</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>56.34053705666067</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3976,19 +3976,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>135.0614749646561</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>410.9217256534534</v>
@@ -4030,13 +4030,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4045,7 +4045,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>107.0120291964086</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4076,7 +4076,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247721</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4143,16 +4143,16 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4191,19 +4191,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>223.3200711275817</v>
+        <v>124.624496261217</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5017,34 +5017,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1934.208022973022</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="C11" t="n">
-        <v>1934.208022973022</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D11" t="n">
-        <v>1575.942324366272</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E11" t="n">
-        <v>1190.154071768027</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F11" t="n">
-        <v>779.1681669784198</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G11" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810556</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L11" t="n">
         <v>1040.244834329464</v>
@@ -5059,34 +5059,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T11" t="n">
-        <v>3009.337405520489</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U11" t="n">
-        <v>2755.806928794325</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V11" t="n">
-        <v>2424.744041450754</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="W11" t="n">
-        <v>2071.97538618064</v>
+        <v>2719.306689612893</v>
       </c>
       <c r="X11" t="n">
-        <v>1934.208022973022</v>
+        <v>2366.344253709365</v>
       </c>
       <c r="Y11" t="n">
-        <v>1934.208022973022</v>
+        <v>1976.204921733553</v>
       </c>
     </row>
     <row r="12">
@@ -5117,31 +5117,31 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M12" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
         <v>2564.909189125856</v>
@@ -5175,43 +5175,43 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>182.1430866838564</v>
+        <v>941.4970410294717</v>
       </c>
       <c r="C13" t="n">
-        <v>182.1430866838564</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="D13" t="n">
-        <v>182.1430866838564</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E13" t="n">
-        <v>182.1430866838564</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F13" t="n">
-        <v>66.51211643218343</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G13" t="n">
-        <v>66.51211643218343</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H13" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K13" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L13" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M13" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N13" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O13" t="n">
         <v>1617.076751502319</v>
@@ -5223,28 +5223,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R13" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S13" t="n">
-        <v>1645.778206672848</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T13" t="n">
-        <v>1645.778206672848</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U13" t="n">
-        <v>1356.675339798491</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V13" t="n">
-        <v>1101.990851592604</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="W13" t="n">
-        <v>812.5736815556436</v>
+        <v>1348.774511177176</v>
       </c>
       <c r="X13" t="n">
-        <v>584.5841306576262</v>
+        <v>1120.784960279158</v>
       </c>
       <c r="Y13" t="n">
-        <v>363.7915515140961</v>
+        <v>1120.784960279158</v>
       </c>
     </row>
     <row r="14">
@@ -5254,34 +5254,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1285.591601078695</v>
+        <v>2212.771568013855</v>
       </c>
       <c r="C14" t="n">
-        <v>916.6290841382836</v>
+        <v>1843.809051073443</v>
       </c>
       <c r="D14" t="n">
-        <v>558.3633855315331</v>
+        <v>1485.543352466693</v>
       </c>
       <c r="E14" t="n">
-        <v>172.5751329332889</v>
+        <v>1099.755099868448</v>
       </c>
       <c r="F14" t="n">
-        <v>172.5751329332889</v>
+        <v>688.769195078841</v>
       </c>
       <c r="G14" t="n">
-        <v>172.5751329332889</v>
+        <v>273.6967449238375</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L14" t="n">
         <v>1040.244834329465</v>
@@ -5290,16 +5290,16 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O14" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R14" t="n">
         <v>3325.605821609171</v>
@@ -5308,22 +5308,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T14" t="n">
-        <v>3119.628073993394</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U14" t="n">
-        <v>3119.628073993394</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V14" t="n">
-        <v>2788.565186649823</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W14" t="n">
-        <v>2435.796531379709</v>
+        <v>2972.837166339057</v>
       </c>
       <c r="X14" t="n">
-        <v>2062.330773118629</v>
+        <v>2599.371408077977</v>
       </c>
       <c r="Y14" t="n">
-        <v>1672.191441142817</v>
+        <v>2599.371408077977</v>
       </c>
     </row>
     <row r="15">
@@ -5333,37 +5333,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D15" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
         <v>176.0213023927779</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I15" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L15" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
@@ -5390,7 +5390,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V15" t="n">
         <v>1779.608347199865</v>
@@ -5399,10 +5399,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="16">
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>423.5412774992673</v>
+        <v>929.0990761059845</v>
       </c>
       <c r="C16" t="n">
-        <v>423.5412774992673</v>
+        <v>760.1628931780776</v>
       </c>
       <c r="D16" t="n">
-        <v>273.4246380869315</v>
+        <v>610.0462537657419</v>
       </c>
       <c r="E16" t="n">
-        <v>273.4246380869315</v>
+        <v>462.1331601833488</v>
       </c>
       <c r="F16" t="n">
-        <v>273.4246380869315</v>
+        <v>315.2432126854384</v>
       </c>
       <c r="G16" t="n">
-        <v>273.4246380869315</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H16" t="n">
-        <v>127.2074513047893</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
         <v>111.634748879119</v>
@@ -5463,25 +5463,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S16" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T16" t="n">
-        <v>1705.527932658019</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="U16" t="n">
-        <v>1416.425065783662</v>
+        <v>1446.505797040963</v>
       </c>
       <c r="V16" t="n">
-        <v>1161.740577577775</v>
+        <v>1446.505797040963</v>
       </c>
       <c r="W16" t="n">
-        <v>872.3234075408147</v>
+        <v>1157.088627004002</v>
       </c>
       <c r="X16" t="n">
-        <v>644.3338566427974</v>
+        <v>929.0990761059845</v>
       </c>
       <c r="Y16" t="n">
-        <v>423.5412774992673</v>
+        <v>929.0990761059845</v>
       </c>
     </row>
     <row r="17">
@@ -5491,52 +5491,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1252.833343223197</v>
+        <v>1712.341567565138</v>
       </c>
       <c r="C17" t="n">
-        <v>883.8708262827856</v>
+        <v>1343.379050624727</v>
       </c>
       <c r="D17" t="n">
-        <v>525.6051276760352</v>
+        <v>985.1133520179762</v>
       </c>
       <c r="E17" t="n">
-        <v>525.6051276760352</v>
+        <v>599.3250994197319</v>
       </c>
       <c r="F17" t="n">
         <v>481.5845665871869</v>
       </c>
       <c r="G17" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R17" t="n">
         <v>3325.605821609171</v>
@@ -5545,22 +5545,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T17" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U17" t="n">
-        <v>2755.806928794325</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V17" t="n">
-        <v>2755.806928794325</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W17" t="n">
-        <v>2403.038273524211</v>
+        <v>2862.546497866152</v>
       </c>
       <c r="X17" t="n">
-        <v>2029.572515263131</v>
+        <v>2489.080739605072</v>
       </c>
       <c r="Y17" t="n">
-        <v>1639.433183287319</v>
+        <v>2098.94140762926</v>
       </c>
     </row>
     <row r="18">
@@ -5585,16 +5585,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G18" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K18" t="n">
         <v>398.4535849031479</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>215.0609594592686</v>
+        <v>521.2725633630544</v>
       </c>
       <c r="C19" t="n">
-        <v>212.7293032143257</v>
+        <v>352.3363804351475</v>
       </c>
       <c r="D19" t="n">
-        <v>212.7293032143257</v>
+        <v>352.3363804351475</v>
       </c>
       <c r="E19" t="n">
-        <v>212.7293032143257</v>
+        <v>352.3363804351475</v>
       </c>
       <c r="F19" t="n">
-        <v>212.7293032143257</v>
+        <v>352.3363804351475</v>
       </c>
       <c r="G19" t="n">
-        <v>212.7293032143257</v>
+        <v>184.6335438098664</v>
       </c>
       <c r="H19" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J19" t="n">
         <v>111.634748879119</v>
@@ -5697,28 +5697,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R19" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S19" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T19" t="n">
-        <v>1424.011591242373</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U19" t="n">
-        <v>1134.908724368016</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V19" t="n">
-        <v>1134.908724368016</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W19" t="n">
-        <v>845.4915543310558</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="X19" t="n">
-        <v>617.5020034330385</v>
+        <v>742.0651425065845</v>
       </c>
       <c r="Y19" t="n">
-        <v>396.7094242895083</v>
+        <v>521.2725633630544</v>
       </c>
     </row>
     <row r="20">
@@ -5728,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1611.504630229389</v>
+        <v>1715.892666966216</v>
       </c>
       <c r="C20" t="n">
-        <v>1611.504630229389</v>
+        <v>1346.930150025805</v>
       </c>
       <c r="D20" t="n">
-        <v>1278.358723975039</v>
+        <v>1346.930150025805</v>
       </c>
       <c r="E20" t="n">
-        <v>892.5704713767946</v>
+        <v>961.1418974275603</v>
       </c>
       <c r="F20" t="n">
-        <v>481.5845665871869</v>
+        <v>550.1559926379527</v>
       </c>
       <c r="G20" t="n">
-        <v>66.51211643218343</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
         <v>255.3912473912087</v>
@@ -5773,7 +5773,7 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R20" t="n">
         <v>3325.605821609171</v>
@@ -5782,22 +5782,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T20" t="n">
-        <v>3325.605821609171</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U20" t="n">
-        <v>3072.075344883008</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V20" t="n">
-        <v>2741.012457539437</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="W20" t="n">
-        <v>2388.243802269323</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="X20" t="n">
-        <v>2388.243802269323</v>
+        <v>2492.63183900615</v>
       </c>
       <c r="Y20" t="n">
-        <v>1998.104470293511</v>
+        <v>2102.492507030338</v>
       </c>
     </row>
     <row r="21">
@@ -5807,31 +5807,31 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G21" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K21" t="n">
         <v>398.4535849031479</v>
@@ -5864,7 +5864,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V21" t="n">
         <v>1779.608347199865</v>
@@ -5873,10 +5873,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1464.823389952862</v>
+        <v>775.6427484063371</v>
       </c>
       <c r="C22" t="n">
-        <v>1464.823389952862</v>
+        <v>606.7065654784302</v>
       </c>
       <c r="D22" t="n">
-        <v>1464.823389952862</v>
+        <v>456.5899260660944</v>
       </c>
       <c r="E22" t="n">
-        <v>1464.823389952862</v>
+        <v>456.5899260660944</v>
       </c>
       <c r="F22" t="n">
-        <v>1464.823389952862</v>
+        <v>309.6999785681841</v>
       </c>
       <c r="G22" t="n">
-        <v>1464.823389952862</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H22" t="n">
-        <v>1464.823389952862</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I22" t="n">
-        <v>1464.823389952862</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J22" t="n">
-        <v>1509.946022399798</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K22" t="n">
-        <v>1713.933205348674</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L22" t="n">
-        <v>2030.49300379717</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M22" t="n">
-        <v>2374.650049396719</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N22" t="n">
-        <v>2716.058426102584</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O22" t="n">
-        <v>3015.388025022997</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P22" t="n">
-        <v>3247.995525456657</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q22" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R22" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S22" t="n">
-        <v>3133.919937435998</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T22" t="n">
-        <v>2912.153322005524</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U22" t="n">
-        <v>2623.050455131167</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="V22" t="n">
-        <v>2368.365966925281</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="W22" t="n">
-        <v>2078.94879688832</v>
+        <v>1224.424878447885</v>
       </c>
       <c r="X22" t="n">
-        <v>1850.959245990303</v>
+        <v>996.4353275498672</v>
       </c>
       <c r="Y22" t="n">
-        <v>1630.166666846773</v>
+        <v>775.6427484063371</v>
       </c>
     </row>
     <row r="23">
@@ -5965,52 +5965,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1164.956419576664</v>
+        <v>1605.601998493312</v>
       </c>
       <c r="C23" t="n">
-        <v>1164.956419576664</v>
+        <v>1236.6394815529</v>
       </c>
       <c r="D23" t="n">
-        <v>1164.956419576664</v>
+        <v>1236.6394815529</v>
       </c>
       <c r="E23" t="n">
-        <v>779.1681669784198</v>
+        <v>850.8512289546557</v>
       </c>
       <c r="F23" t="n">
-        <v>779.1681669784198</v>
+        <v>439.8653241650481</v>
       </c>
       <c r="G23" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H23" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I23" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L23" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M23" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N23" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O23" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P23" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q23" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R23" t="n">
         <v>3325.605821609171</v>
@@ -6019,22 +6019,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T23" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U23" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V23" t="n">
-        <v>2424.744041450753</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="W23" t="n">
-        <v>2071.975386180639</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="X23" t="n">
-        <v>1698.509627919559</v>
+        <v>2382.341170533245</v>
       </c>
       <c r="Y23" t="n">
-        <v>1308.370295943747</v>
+        <v>1992.201838557433</v>
       </c>
     </row>
     <row r="24">
@@ -6059,16 +6059,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G24" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I24" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J24" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K24" t="n">
         <v>398.4535849031479</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1091.613680441807</v>
+        <v>952.9459563751726</v>
       </c>
       <c r="C25" t="n">
-        <v>922.6774975139006</v>
+        <v>825.3518203322459</v>
       </c>
       <c r="D25" t="n">
-        <v>772.5608581015648</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E25" t="n">
-        <v>624.6477645191717</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F25" t="n">
-        <v>477.7578170212613</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="G25" t="n">
-        <v>310.0549803959803</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H25" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I25" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J25" t="n">
         <v>111.634748879119</v>
@@ -6174,25 +6174,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S25" t="n">
-        <v>1837.464090846021</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T25" t="n">
-        <v>1837.464090846021</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U25" t="n">
-        <v>1837.464090846021</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="V25" t="n">
-        <v>1837.464090846021</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="W25" t="n">
-        <v>1722.044275313594</v>
+        <v>1134.594421205412</v>
       </c>
       <c r="X25" t="n">
-        <v>1494.054724415577</v>
+        <v>1134.594421205412</v>
       </c>
       <c r="Y25" t="n">
-        <v>1273.262145272047</v>
+        <v>1134.594421205412</v>
       </c>
     </row>
     <row r="26">
@@ -6253,22 +6253,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S26" t="n">
-        <v>3215.315153136266</v>
+        <v>3294.053173535669</v>
       </c>
       <c r="T26" t="n">
-        <v>3009.337405520488</v>
+        <v>3088.075425919891</v>
       </c>
       <c r="U26" t="n">
-        <v>2755.806928794324</v>
+        <v>3088.075425919891</v>
       </c>
       <c r="V26" t="n">
-        <v>2424.744041450753</v>
+        <v>3088.075425919891</v>
       </c>
       <c r="W26" t="n">
-        <v>2345.167438673965</v>
+        <v>2735.306770649777</v>
       </c>
       <c r="X26" t="n">
-        <v>2345.167438673965</v>
+        <v>2735.306770649777</v>
       </c>
       <c r="Y26" t="n">
         <v>2345.167438673965</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>630.8037095364738</v>
+        <v>846.3749096777597</v>
       </c>
       <c r="C28" t="n">
-        <v>461.8675266085669</v>
+        <v>677.4387267498528</v>
       </c>
       <c r="D28" t="n">
-        <v>311.7508871962312</v>
+        <v>527.322087337517</v>
       </c>
       <c r="E28" t="n">
-        <v>163.8377936138381</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F28" t="n">
-        <v>163.8377936138381</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G28" t="n">
-        <v>163.8377936138381</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H28" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I28" t="n">
         <v>66.51211643218342</v>
@@ -6408,28 +6408,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R28" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S28" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T28" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U28" t="n">
-        <v>1322.661923547204</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V28" t="n">
-        <v>1322.661923547204</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W28" t="n">
-        <v>1033.244753510244</v>
+        <v>1383.192889845645</v>
       </c>
       <c r="X28" t="n">
-        <v>1033.244753510244</v>
+        <v>1248.815953651529</v>
       </c>
       <c r="Y28" t="n">
-        <v>812.4521743667135</v>
+        <v>1028.023374507999</v>
       </c>
     </row>
     <row r="29">
@@ -6439,52 +6439,52 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2005.586939522201</v>
+        <v>2303.170539913434</v>
       </c>
       <c r="C29" t="n">
-        <v>1636.624422581789</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="D29" t="n">
-        <v>1278.358723975039</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E29" t="n">
-        <v>892.5704713767946</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F29" t="n">
-        <v>481.5845665871869</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G29" t="n">
-        <v>66.51211643218343</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H29" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I29" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J29" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K29" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L29" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M29" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N29" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O29" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P29" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q29" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R29" t="n">
         <v>3325.605821609171</v>
@@ -6493,22 +6493,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T29" t="n">
-        <v>3119.628073993394</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U29" t="n">
-        <v>3119.628073993394</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V29" t="n">
-        <v>3119.628073993394</v>
+        <v>3063.236138238636</v>
       </c>
       <c r="W29" t="n">
-        <v>2766.859418723279</v>
+        <v>3063.236138238636</v>
       </c>
       <c r="X29" t="n">
-        <v>2766.859418723279</v>
+        <v>2689.770379977556</v>
       </c>
       <c r="Y29" t="n">
-        <v>2376.720086747468</v>
+        <v>2689.770379977556</v>
       </c>
     </row>
     <row r="30">
@@ -6518,31 +6518,31 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C30" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D30" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E30" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F30" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G30" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H30" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I30" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J30" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K30" t="n">
         <v>398.4535849031479</v>
@@ -6575,7 +6575,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U30" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V30" t="n">
         <v>1779.608347199865</v>
@@ -6584,10 +6584,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X30" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y30" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="31">
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>677.4387267498528</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C31" t="n">
-        <v>677.4387267498528</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D31" t="n">
-        <v>527.322087337517</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E31" t="n">
-        <v>527.322087337517</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F31" t="n">
-        <v>380.4321398396067</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G31" t="n">
-        <v>212.7293032143257</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H31" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I31" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J31" t="n">
         <v>111.634748879119</v>
@@ -6645,28 +6645,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R31" t="n">
-        <v>1851.970979864488</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S31" t="n">
-        <v>1851.970979864488</v>
+        <v>1751.913851851648</v>
       </c>
       <c r="T31" t="n">
-        <v>1851.970979864488</v>
+        <v>1530.147236421175</v>
       </c>
       <c r="U31" t="n">
-        <v>1851.970979864488</v>
+        <v>1241.044369546818</v>
       </c>
       <c r="V31" t="n">
-        <v>1597.286491658601</v>
+        <v>986.3598813409312</v>
       </c>
       <c r="W31" t="n">
-        <v>1307.86932162164</v>
+        <v>696.9427113039706</v>
       </c>
       <c r="X31" t="n">
-        <v>1079.879770723623</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="Y31" t="n">
-        <v>859.0871915800925</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="32">
@@ -6676,52 +6676,52 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1632.511388127729</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C32" t="n">
-        <v>1263.548871187317</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D32" t="n">
-        <v>905.2831725805665</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E32" t="n">
-        <v>519.4949199823222</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F32" t="n">
-        <v>108.5090151927147</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G32" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H32" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I32" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J32" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K32" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L32" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M32" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N32" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O32" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P32" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q32" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R32" t="n">
         <v>3325.605821609171</v>
@@ -6736,16 +6736,16 @@
         <v>3325.605821609171</v>
       </c>
       <c r="V32" t="n">
-        <v>2994.5429342656</v>
+        <v>2994.542934265601</v>
       </c>
       <c r="W32" t="n">
-        <v>2782.716318428742</v>
+        <v>2731.767278738087</v>
       </c>
       <c r="X32" t="n">
-        <v>2409.250560167662</v>
+        <v>2731.767278738087</v>
       </c>
       <c r="Y32" t="n">
-        <v>2019.11122819185</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="33">
@@ -6755,37 +6755,37 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C33" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D33" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E33" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F33" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G33" t="n">
         <v>176.0213023927779</v>
       </c>
       <c r="H33" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I33" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J33" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K33" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L33" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M33" t="n">
         <v>1212.428070438129</v>
@@ -6812,7 +6812,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U33" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V33" t="n">
         <v>1779.608347199865</v>
@@ -6821,10 +6821,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X33" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y33" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1759.626431033164</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="C34" t="n">
-        <v>1759.626431033164</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D34" t="n">
-        <v>1759.626431033164</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E34" t="n">
-        <v>1611.713337450771</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F34" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G34" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H34" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I34" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J34" t="n">
-        <v>1509.946022399797</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K34" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L34" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M34" t="n">
-        <v>2374.650049396718</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N34" t="n">
-        <v>2716.058426102583</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O34" t="n">
-        <v>3015.388025022996</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P34" t="n">
-        <v>3247.995525456656</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q34" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R34" t="n">
-        <v>3235.775364366698</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S34" t="n">
-        <v>3044.089480193525</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T34" t="n">
-        <v>2822.322864763051</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U34" t="n">
-        <v>2533.219997888694</v>
+        <v>1241.044369546818</v>
       </c>
       <c r="V34" t="n">
-        <v>2458.681616798382</v>
+        <v>986.3598813409312</v>
       </c>
       <c r="W34" t="n">
-        <v>2169.264446761421</v>
+        <v>696.9427113039706</v>
       </c>
       <c r="X34" t="n">
-        <v>1941.274895863404</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="Y34" t="n">
-        <v>1941.274895863404</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="35">
@@ -6913,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1175.300932605791</v>
+        <v>2303.170539913434</v>
       </c>
       <c r="C35" t="n">
-        <v>806.3384156653794</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="D35" t="n">
-        <v>806.3384156653794</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E35" t="n">
-        <v>806.3384156653794</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F35" t="n">
-        <v>806.3384156653794</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G35" t="n">
-        <v>391.2659655103759</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H35" t="n">
-        <v>93.68236511914313</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L35" t="n">
         <v>1040.244834329465</v>
@@ -6952,37 +6952,37 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S35" t="n">
-        <v>3215.315153136267</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T35" t="n">
-        <v>3009.337405520489</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U35" t="n">
-        <v>3009.337405520489</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="V35" t="n">
-        <v>2678.274518176919</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="W35" t="n">
-        <v>2325.505862906804</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="X35" t="n">
-        <v>1952.040104645725</v>
+        <v>3079.909711953368</v>
       </c>
       <c r="Y35" t="n">
-        <v>1561.900772669913</v>
+        <v>2689.770379977556</v>
       </c>
     </row>
     <row r="36">
@@ -6992,37 +6992,37 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C36" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D36" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E36" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F36" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G36" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064549</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K36" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L36" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1091.613680441807</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C37" t="n">
-        <v>922.6774975139006</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D37" t="n">
-        <v>772.5608581015648</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E37" t="n">
-        <v>624.6477645191717</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F37" t="n">
-        <v>477.7578170212613</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G37" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H37" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J37" t="n">
         <v>111.634748879119</v>
@@ -7122,25 +7122,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S37" t="n">
-        <v>1927.294548088493</v>
+        <v>1768.892617673702</v>
       </c>
       <c r="T37" t="n">
-        <v>1927.294548088493</v>
+        <v>1547.126002243228</v>
       </c>
       <c r="U37" t="n">
-        <v>1927.294548088493</v>
+        <v>1547.126002243228</v>
       </c>
       <c r="V37" t="n">
-        <v>1927.294548088493</v>
+        <v>1547.126002243228</v>
       </c>
       <c r="W37" t="n">
-        <v>1722.044275313594</v>
+        <v>1257.708832206268</v>
       </c>
       <c r="X37" t="n">
-        <v>1494.054724415577</v>
+        <v>1029.71928130825</v>
       </c>
       <c r="Y37" t="n">
-        <v>1273.262145272047</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1969.42314369238</v>
+        <v>1267.635416552713</v>
       </c>
       <c r="C38" t="n">
-        <v>1600.460626751969</v>
+        <v>1267.635416552713</v>
       </c>
       <c r="D38" t="n">
-        <v>1600.460626751969</v>
+        <v>909.3697179459625</v>
       </c>
       <c r="E38" t="n">
-        <v>1214.672374153724</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="F38" t="n">
-        <v>803.6864693641169</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G38" t="n">
-        <v>388.6140192091133</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H38" t="n">
-        <v>91.03041881788056</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R38" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S38" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T38" t="n">
-        <v>3119.628073993394</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U38" t="n">
-        <v>3119.628073993394</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V38" t="n">
-        <v>3119.628073993394</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W38" t="n">
-        <v>3119.628073993394</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X38" t="n">
-        <v>2746.162315732314</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y38" t="n">
-        <v>2356.022983756502</v>
+        <v>1654.235256616835</v>
       </c>
     </row>
     <row r="39">
@@ -7244,16 +7244,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G39" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K39" t="n">
         <v>398.4535849031479</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2180.804223819021</v>
+        <v>553.2677753977071</v>
       </c>
       <c r="C40" t="n">
-        <v>2170.872131622243</v>
+        <v>384.3315924698002</v>
       </c>
       <c r="D40" t="n">
-        <v>2170.872131622243</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="E40" t="n">
-        <v>2022.95903803985</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F40" t="n">
-        <v>1876.06909054194</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G40" t="n">
-        <v>1708.366253916659</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H40" t="n">
-        <v>1562.149067134517</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I40" t="n">
-        <v>1464.823389952862</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J40" t="n">
-        <v>1509.946022399798</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K40" t="n">
-        <v>1713.933205348674</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L40" t="n">
-        <v>2030.49300379717</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M40" t="n">
-        <v>2374.650049396719</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N40" t="n">
-        <v>2716.058426102584</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O40" t="n">
-        <v>3015.388025022997</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P40" t="n">
-        <v>3247.995525456657</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q40" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R40" t="n">
-        <v>3235.775364366699</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S40" t="n">
-        <v>3235.775364366699</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T40" t="n">
-        <v>3014.008748936225</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U40" t="n">
-        <v>2724.905882061869</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V40" t="n">
-        <v>2470.221393855982</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W40" t="n">
-        <v>2180.804223819021</v>
+        <v>955.7088193714769</v>
       </c>
       <c r="X40" t="n">
-        <v>2180.804223819021</v>
+        <v>955.7088193714769</v>
       </c>
       <c r="Y40" t="n">
-        <v>2180.804223819021</v>
+        <v>734.9162402279468</v>
       </c>
     </row>
     <row r="41">
@@ -7387,52 +7387,52 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1175.30093260579</v>
+        <v>1252.833343223197</v>
       </c>
       <c r="C41" t="n">
-        <v>806.3384156653785</v>
+        <v>1221.551972426786</v>
       </c>
       <c r="D41" t="n">
-        <v>806.3384156653785</v>
+        <v>863.2862738200351</v>
       </c>
       <c r="E41" t="n">
         <v>477.498021221791</v>
       </c>
       <c r="F41" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G41" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H41" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M41" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O41" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R41" t="n">
         <v>3325.605821609171</v>
@@ -7441,22 +7441,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T41" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U41" t="n">
-        <v>3009.337405520489</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V41" t="n">
-        <v>2678.274518176918</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W41" t="n">
-        <v>2325.505862906803</v>
+        <v>2403.03827352421</v>
       </c>
       <c r="X41" t="n">
-        <v>1952.040104645724</v>
+        <v>2029.57251526313</v>
       </c>
       <c r="Y41" t="n">
-        <v>1561.900772669912</v>
+        <v>1639.433183287319</v>
       </c>
     </row>
     <row r="42">
@@ -7481,16 +7481,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G42" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K42" t="n">
         <v>398.4535849031479</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>533.4780323548192</v>
+        <v>793.5839474470786</v>
       </c>
       <c r="C43" t="n">
-        <v>364.5418494269123</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="D43" t="n">
-        <v>214.4252100145765</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="E43" t="n">
-        <v>66.51211643218343</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F43" t="n">
-        <v>66.51211643218343</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G43" t="n">
-        <v>66.51211643218343</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H43" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J43" t="n">
         <v>111.634748879119</v>
@@ -7596,25 +7596,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S43" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T43" t="n">
-        <v>1705.527932658019</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="U43" t="n">
-        <v>1487.217706325924</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="V43" t="n">
-        <v>1232.533218120037</v>
+        <v>1480.924175709432</v>
       </c>
       <c r="W43" t="n">
-        <v>943.1160480830763</v>
+        <v>1424.014542318866</v>
       </c>
       <c r="X43" t="n">
-        <v>715.126497185059</v>
+        <v>1196.024991420848</v>
       </c>
       <c r="Y43" t="n">
-        <v>715.126497185059</v>
+        <v>975.2324122773183</v>
       </c>
     </row>
     <row r="44">
@@ -7624,16 +7624,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1590.416669135309</v>
+        <v>1712.341567565138</v>
       </c>
       <c r="C44" t="n">
-        <v>1590.416669135309</v>
+        <v>1343.379050624727</v>
       </c>
       <c r="D44" t="n">
-        <v>1232.150970528558</v>
+        <v>1206.953318337195</v>
       </c>
       <c r="E44" t="n">
-        <v>1232.150970528558</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="F44" t="n">
         <v>821.1650657389509</v>
@@ -7645,7 +7645,7 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J44" t="n">
         <v>255.3912473912089</v>
@@ -7669,7 +7669,7 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R44" t="n">
         <v>3325.605821609171</v>
@@ -7678,22 +7678,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T44" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U44" t="n">
-        <v>2755.806928794325</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V44" t="n">
-        <v>2424.744041450754</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W44" t="n">
-        <v>2071.97538618064</v>
+        <v>2862.546497866152</v>
       </c>
       <c r="X44" t="n">
-        <v>1698.50962791956</v>
+        <v>2489.080739605072</v>
       </c>
       <c r="Y44" t="n">
-        <v>1590.416669135309</v>
+        <v>2098.94140762926</v>
       </c>
     </row>
     <row r="45">
@@ -7703,31 +7703,31 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C45" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D45" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G45" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K45" t="n">
         <v>398.4535849031479</v>
@@ -7760,7 +7760,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U45" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V45" t="n">
         <v>1779.608347199865</v>
@@ -7769,10 +7769,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X45" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y45" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="46">
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>403.1511359853714</v>
+        <v>844.171363847817</v>
       </c>
       <c r="C46" t="n">
-        <v>234.2149530574645</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="D46" t="n">
-        <v>234.2149530574645</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E46" t="n">
-        <v>234.2149530574645</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F46" t="n">
-        <v>234.2149530574645</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G46" t="n">
-        <v>66.51211643218343</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H46" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J46" t="n">
         <v>111.634748879119</v>
@@ -7839,19 +7839,19 @@
         <v>1513.842048484845</v>
       </c>
       <c r="U46" t="n">
-        <v>1513.842048484845</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V46" t="n">
-        <v>1259.157560278958</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W46" t="n">
-        <v>1033.581730857159</v>
+        <v>844.171363847817</v>
       </c>
       <c r="X46" t="n">
-        <v>805.5921799591413</v>
+        <v>844.171363847817</v>
       </c>
       <c r="Y46" t="n">
-        <v>584.7996008156111</v>
+        <v>844.171363847817</v>
       </c>
     </row>
   </sheetData>
@@ -7978,28 +7978,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>111.3760925029329</v>
+        <v>111.3760925029323</v>
       </c>
       <c r="K2" t="n">
-        <v>115.6728628570364</v>
+        <v>115.6728628570356</v>
       </c>
       <c r="L2" t="n">
-        <v>106.2279079411536</v>
+        <v>106.2279079411526</v>
       </c>
       <c r="M2" t="n">
-        <v>86.20968475950866</v>
+        <v>86.2096847595075</v>
       </c>
       <c r="N2" t="n">
-        <v>82.94423508449643</v>
+        <v>82.9442350844952</v>
       </c>
       <c r="O2" t="n">
-        <v>91.79185002470376</v>
+        <v>91.79185002470263</v>
       </c>
       <c r="P2" t="n">
-        <v>113.1917161337049</v>
+        <v>113.191716133704</v>
       </c>
       <c r="Q2" t="n">
-        <v>133.6616048283652</v>
+        <v>133.6616048283644</v>
       </c>
       <c r="R2" t="n">
         <v>65.71641987298243</v>
@@ -8057,28 +8057,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>85.34276391131297</v>
+        <v>85.34276391131263</v>
       </c>
       <c r="K3" t="n">
-        <v>66.92010932096046</v>
+        <v>66.92010932095988</v>
       </c>
       <c r="L3" t="n">
-        <v>43.19189982519306</v>
+        <v>43.19189982519228</v>
       </c>
       <c r="M3" t="n">
-        <v>30.85051777249956</v>
+        <v>30.85051777249863</v>
       </c>
       <c r="N3" t="n">
-        <v>17.11285239577377</v>
+        <v>17.11285239577283</v>
       </c>
       <c r="O3" t="n">
-        <v>38.09915424948259</v>
+        <v>38.09915424948174</v>
       </c>
       <c r="P3" t="n">
-        <v>50.10627990666624</v>
+        <v>50.10627990666556</v>
       </c>
       <c r="Q3" t="n">
-        <v>83.91815189430272</v>
+        <v>83.91815189430226</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8139,22 +8139,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>86.23379249476912</v>
+        <v>86.23379249476876</v>
       </c>
       <c r="L4" t="n">
-        <v>80.1416886707937</v>
+        <v>80.14168867079326</v>
       </c>
       <c r="M4" t="n">
-        <v>81.20697904563026</v>
+        <v>81.20697904562979</v>
       </c>
       <c r="N4" t="n">
-        <v>71.33916373595508</v>
+        <v>71.33916373595463</v>
       </c>
       <c r="O4" t="n">
-        <v>86.4115359223581</v>
+        <v>86.41153592235767</v>
       </c>
       <c r="P4" t="n">
-        <v>93.19451333315432</v>
+        <v>93.19451333315395</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8221,16 +8221,16 @@
         <v>100.0299464227919</v>
       </c>
       <c r="L5" t="n">
-        <v>86.82148686318189</v>
+        <v>86.82148686318186</v>
       </c>
       <c r="M5" t="n">
-        <v>64.61630209323866</v>
+        <v>64.61630209323863</v>
       </c>
       <c r="N5" t="n">
         <v>61.00144891149961</v>
       </c>
       <c r="O5" t="n">
-        <v>71.07189926570237</v>
+        <v>71.0718992657024</v>
       </c>
       <c r="P5" t="n">
         <v>95.50771753390021</v>
@@ -8315,7 +8315,7 @@
         <v>37.54182911310821</v>
       </c>
       <c r="Q6" t="n">
-        <v>75.5191492782957</v>
+        <v>75.51914927829571</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8382,7 +8382,7 @@
         <v>71.94053294496764</v>
       </c>
       <c r="M7" t="n">
-        <v>72.56001021962936</v>
+        <v>72.56001021962938</v>
       </c>
       <c r="N7" t="n">
         <v>62.89780050171086</v>
@@ -8452,7 +8452,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>92.06191329280013</v>
+        <v>92.06191329280011</v>
       </c>
       <c r="K8" t="n">
         <v>86.72591490550931</v>
@@ -8461,7 +8461,7 @@
         <v>70.31665934305323</v>
       </c>
       <c r="M8" t="n">
-        <v>46.25150133729366</v>
+        <v>46.25150133729363</v>
       </c>
       <c r="N8" t="n">
         <v>42.33948647951536</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>73.83937108913169</v>
+        <v>73.83937108913167</v>
       </c>
       <c r="K9" t="n">
         <v>47.25897875440141</v>
@@ -8625,10 +8625,10 @@
         <v>55.71856618250388</v>
       </c>
       <c r="O10" t="n">
-        <v>71.9833858147683</v>
+        <v>71.98338581476828</v>
       </c>
       <c r="P10" t="n">
-        <v>80.84873837615827</v>
+        <v>80.84873837615825</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -22561,7 +22561,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>14.48187344321937</v>
+        <v>14.48187344321936</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22798,7 +22798,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>14.35889816588482</v>
+        <v>14.3588981658848</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -23035,7 +23035,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>14.25430980652213</v>
+        <v>14.25430980652214</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23278,7 +23278,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>233.3414111029274</v>
+        <v>20.29828913397648</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>2.336940124747656</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>30.946387473775</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
         <v>219.5489492761692</v>
@@ -23475,7 +23475,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23506,13 +23506,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>189.6053780512261</v>
+        <v>89.49498218058295</v>
       </c>
       <c r="I14" t="n">
         <v>41.57692977292595</v>
@@ -23548,13 +23548,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23563,7 +23563,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23655,25 +23655,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>64.53703788262661</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>36.2640388859583</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,16 +23703,16 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23740,10 +23740,10 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>363.2956902637517</v>
+        <v>290.3129182374919</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23785,10 +23785,10 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -23889,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>164.9384814161343</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23904,10 +23904,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>27.81480181041459</v>
       </c>
       <c r="I19" t="n">
         <v>96.35242040983809</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23949,10 +23949,10 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -23971,10 +23971,10 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>24.86859442887607</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -23983,13 +23983,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>268.2989823699883</v>
       </c>
       <c r="H20" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24022,19 +24022,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24126,25 +24126,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>16.14213605696585</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>70.02483965870837</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>96.35242040983809</v>
@@ -24183,10 +24183,10 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24205,10 +24205,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>240.7541040600681</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -24217,16 +24217,16 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>82.87897977084339</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24265,10 +24265,10 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -24366,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>40.92862641613038</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,10 +24414,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2118382056129</v>
@@ -24426,13 +24426,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>172.2573809594889</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24493,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>77.95064019540926</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>270.4601319683927</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24609,19 +24609,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,25 +24648,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>185.8756671873957</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>92.67648855686247</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>15.31202591046667</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24697,7 +24697,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292595</v>
@@ -24733,22 +24733,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>68.00627193330541</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24843,19 +24843,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
         <v>96.35242040983809</v>
@@ -24885,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>14.36182012828223</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>16.14213605696594</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24931,10 +24931,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24979,13 +24979,13 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>139.5326190389237</v>
+        <v>89.09306974517449</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -25083,10 +25083,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>166.0258082590282</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25131,10 +25131,10 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>16.14213605696614</v>
       </c>
       <c r="V34" t="n">
-        <v>178.3446460444189</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25159,13 +25159,13 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -25174,7 +25174,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>14.67838357283587</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25213,13 +25213,13 @@
         <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>330.4099222588433</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,10 +25362,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>32.9511142207993</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.2118382056129</v>
@@ -25374,13 +25374,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>83.32522828944164</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25393,25 +25393,25 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>17.3038104110858</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,25 +25441,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>342.4063110663565</v>
       </c>
     </row>
     <row r="39">
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>157.4140498238173</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25611,13 +25611,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>272.3205830437973</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25630,13 +25630,13 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>334.3043346825604</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>56.37837957311012</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25684,10 +25684,10 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,25 +25836,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>70.08471413683884</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>230.1824612799303</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25864,19 +25864,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>219.6215666560268</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -25918,13 +25918,13 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -25933,7 +25933,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>279.225909459645</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26031,16 +26031,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>96.35242040983809</v>
@@ -26079,19 +26079,19 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>63.20292720900935</v>
+        <v>161.898502075374</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>902908.4665603712</v>
+        <v>902908.4665603709</v>
       </c>
     </row>
     <row r="3">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>890877.3765465324</v>
+        <v>890877.3765465321</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>725853.0112791307</v>
+        <v>725853.0112791306</v>
       </c>
     </row>
     <row r="6">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>725853.0112791307</v>
+        <v>725853.0112791306</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>725853.0112791306</v>
+        <v>725853.0112791308</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>725853.0112791308</v>
+        <v>725853.0112791307</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>725853.0112791307</v>
+        <v>725853.0112791305</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>725853.0112791307</v>
+        <v>725853.0112791306</v>
       </c>
     </row>
     <row r="16">
@@ -26316,25 +26316,25 @@
         <v>573539.1756480138</v>
       </c>
       <c r="C2" t="n">
-        <v>573546.0278304667</v>
+        <v>573546.0278304672</v>
       </c>
       <c r="D2" t="n">
-        <v>573551.8554938505</v>
+        <v>573551.8554938509</v>
       </c>
       <c r="E2" t="n">
-        <v>477395.9385592892</v>
+        <v>477395.9385592891</v>
       </c>
       <c r="F2" t="n">
-        <v>477395.9385592889</v>
+        <v>477395.938559289</v>
       </c>
       <c r="G2" t="n">
         <v>477395.9385592889</v>
       </c>
       <c r="H2" t="n">
-        <v>477395.9385592889</v>
+        <v>477395.938559289</v>
       </c>
       <c r="I2" t="n">
-        <v>477395.9385592889</v>
+        <v>477395.9385592891</v>
       </c>
       <c r="J2" t="n">
         <v>477395.938559289</v>
@@ -26346,16 +26346,16 @@
         <v>477395.938559289</v>
       </c>
       <c r="M2" t="n">
-        <v>477395.9385592891</v>
+        <v>477395.9385592889</v>
       </c>
       <c r="N2" t="n">
+        <v>477395.9385592889</v>
+      </c>
+      <c r="O2" t="n">
         <v>477395.938559289</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>477395.9385592889</v>
-      </c>
-      <c r="P2" t="n">
-        <v>477395.938559289</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>196760.0786190573</v>
+        <v>196760.0786190589</v>
       </c>
       <c r="C3" t="n">
-        <v>27855.40645598436</v>
+        <v>27855.40645598283</v>
       </c>
       <c r="D3" t="n">
         <v>22280.77012981693</v>
       </c>
       <c r="E3" t="n">
-        <v>914243.4502001548</v>
+        <v>914243.4502001547</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>207188.5682920731</v>
+        <v>207188.568292073</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>378259.3928997747</v>
+        <v>378259.3928997742</v>
       </c>
       <c r="C4" t="n">
         <v>370434.2549872373</v>
@@ -26426,7 +26426,7 @@
         <v>364025.9487187511</v>
       </c>
       <c r="E4" t="n">
-        <v>10380.34706710377</v>
+        <v>10380.34706710378</v>
       </c>
       <c r="F4" t="n">
         <v>10380.34706710378</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>38078.94064598075</v>
+        <v>38078.94064598079</v>
       </c>
       <c r="C5" t="n">
         <v>38745.80483114667</v>
@@ -26478,7 +26478,7 @@
         <v>39312.96135688073</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.34056139331</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="F5" t="n">
         <v>74306.3405613933</v>
@@ -26502,7 +26502,7 @@
         <v>74306.3405613933</v>
       </c>
       <c r="M5" t="n">
-        <v>74306.34056139331</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="N5" t="n">
         <v>74306.3405613933</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-39559.23651679895</v>
+        <v>-39601.73877597816</v>
       </c>
       <c r="C6" t="n">
-        <v>136510.5615560984</v>
+        <v>136468.3040177243</v>
       </c>
       <c r="D6" t="n">
-        <v>147932.1752884018</v>
+        <v>147890.1258808611</v>
       </c>
       <c r="E6" t="n">
-        <v>-521534.1992693627</v>
+        <v>-525010.3885674237</v>
       </c>
       <c r="F6" t="n">
-        <v>392709.250930792</v>
+        <v>389233.0616327308</v>
       </c>
       <c r="G6" t="n">
-        <v>392709.2509307918</v>
+        <v>389233.0616327307</v>
       </c>
       <c r="H6" t="n">
-        <v>392709.2509307918</v>
+        <v>389233.0616327308</v>
       </c>
       <c r="I6" t="n">
-        <v>392709.2509307918</v>
+        <v>389233.0616327309</v>
       </c>
       <c r="J6" t="n">
-        <v>392709.2509307919</v>
+        <v>389233.0616327308</v>
       </c>
       <c r="K6" t="n">
-        <v>392709.2509307918</v>
+        <v>389233.0616327308</v>
       </c>
       <c r="L6" t="n">
-        <v>392709.2509307919</v>
+        <v>389233.0616327309</v>
       </c>
       <c r="M6" t="n">
-        <v>185520.6826387189</v>
+        <v>182044.4933406578</v>
       </c>
       <c r="N6" t="n">
-        <v>392709.2509307919</v>
+        <v>389233.0616327307</v>
       </c>
       <c r="O6" t="n">
-        <v>392709.2509307918</v>
+        <v>389233.0616327308</v>
       </c>
       <c r="P6" t="n">
-        <v>392709.2509307919</v>
+        <v>389233.0616327307</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>204.1899378890253</v>
+        <v>204.189937889027</v>
       </c>
       <c r="C3" t="n">
         <v>234.7800381259942</v>
@@ -26746,7 +26746,7 @@
         <v>260.7963925174648</v>
       </c>
       <c r="E3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
         <v>1089.776700593298</v>
@@ -26798,40 +26798,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
+        <v>831.4014554022928</v>
+      </c>
+      <c r="F4" t="n">
+        <v>831.4014554022928</v>
+      </c>
+      <c r="G4" t="n">
+        <v>831.4014554022928</v>
+      </c>
+      <c r="H4" t="n">
+        <v>831.4014554022928</v>
+      </c>
+      <c r="I4" t="n">
         <v>831.4014554022929</v>
-      </c>
-      <c r="F4" t="n">
-        <v>831.4014554022929</v>
-      </c>
-      <c r="G4" t="n">
-        <v>831.4014554022929</v>
-      </c>
-      <c r="H4" t="n">
-        <v>831.4014554022929</v>
-      </c>
-      <c r="I4" t="n">
-        <v>831.4014554022926</v>
       </c>
       <c r="J4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="L4" t="n">
         <v>831.4014554022929</v>
       </c>
-      <c r="L4" t="n">
+      <c r="M4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="N4" t="n">
         <v>831.4014554022926</v>
       </c>
-      <c r="M4" t="n">
-        <v>831.4014554022931</v>
-      </c>
-      <c r="N4" t="n">
-        <v>831.4014554022929</v>
-      </c>
       <c r="O4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
     </row>
   </sheetData>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>204.1899378890253</v>
+        <v>204.189937889027</v>
       </c>
       <c r="C3" t="n">
-        <v>30.59010023696891</v>
+        <v>30.59010023696722</v>
       </c>
       <c r="D3" t="n">
         <v>26.01635439147063</v>
       </c>
       <c r="E3" t="n">
-        <v>828.9803080758337</v>
+        <v>828.9803080758335</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022933</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27396,10 +27396,10 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>331.0681279392607</v>
+        <v>331.0681279392606</v>
       </c>
       <c r="I2" t="n">
-        <v>178.8295274378767</v>
+        <v>178.8295274378764</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,13 +27426,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>98.30551518367636</v>
+        <v>98.30551518367594</v>
       </c>
       <c r="S2" t="n">
-        <v>190.3146295474668</v>
+        <v>190.3146295474666</v>
       </c>
       <c r="T2" t="n">
-        <v>219.5025170893205</v>
+        <v>219.5025170893204</v>
       </c>
       <c r="U2" t="n">
         <v>251.2799837820832</v>
@@ -27475,10 +27475,10 @@
         <v>136.9043161647324</v>
       </c>
       <c r="H3" t="n">
-        <v>107.9936872248773</v>
+        <v>107.9936872248772</v>
       </c>
       <c r="I3" t="n">
-        <v>74.27501952661461</v>
+        <v>74.2750195266145</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.88884584361442</v>
+        <v>72.88884584361421</v>
       </c>
       <c r="S3" t="n">
         <v>163.5252051891206</v>
@@ -27557,10 +27557,10 @@
         <v>158.9534387491532</v>
       </c>
       <c r="I4" t="n">
-        <v>144.3773550168174</v>
+        <v>144.3773550168173</v>
       </c>
       <c r="J4" t="n">
-        <v>67.32663672383754</v>
+        <v>67.32663672383732</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,10 +27581,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>55.32936263045157</v>
+        <v>55.32936263045131</v>
       </c>
       <c r="R4" t="n">
-        <v>160.7372695280036</v>
+        <v>160.7372695280035</v>
       </c>
       <c r="S4" t="n">
         <v>217.5996781856073</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>84.0108208899931</v>
+        <v>84.01082088999308</v>
       </c>
       <c r="S8" t="n">
         <v>185.1290231762283</v>
@@ -28034,7 +28034,7 @@
         <v>141.3076148215571</v>
       </c>
       <c r="J10" t="n">
-        <v>60.10977774604452</v>
+        <v>60.10977774604451</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>46.7817879815572</v>
+        <v>46.78178798155719</v>
       </c>
       <c r="R10" t="n">
         <v>156.1475068297698</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.8208640719156789</v>
+        <v>0.8208640719156857</v>
       </c>
       <c r="H2" t="n">
-        <v>8.406674176506449</v>
+        <v>8.406674176506518</v>
       </c>
       <c r="I2" t="n">
-        <v>31.64636213252924</v>
+        <v>31.6463621325295</v>
       </c>
       <c r="J2" t="n">
-        <v>69.66981202375342</v>
+        <v>69.66981202375399</v>
       </c>
       <c r="K2" t="n">
-        <v>104.4169881879441</v>
+        <v>104.416988187945</v>
       </c>
       <c r="L2" t="n">
-        <v>129.5385070288336</v>
+        <v>129.5385070288347</v>
       </c>
       <c r="M2" t="n">
-        <v>144.1365484677641</v>
+        <v>144.1365484677652</v>
       </c>
       <c r="N2" t="n">
-        <v>146.4688285120945</v>
+        <v>146.4688285120957</v>
       </c>
       <c r="O2" t="n">
-        <v>138.306361396983</v>
+        <v>138.3063613969841</v>
       </c>
       <c r="P2" t="n">
-        <v>118.0412796215646</v>
+        <v>118.0412796215656</v>
       </c>
       <c r="Q2" t="n">
-        <v>88.64408504608433</v>
+        <v>88.64408504608507</v>
       </c>
       <c r="R2" t="n">
-        <v>51.56360275747331</v>
+        <v>51.56360275747374</v>
       </c>
       <c r="S2" t="n">
-        <v>18.70544003877855</v>
+        <v>18.70544003877871</v>
       </c>
       <c r="T2" t="n">
-        <v>3.593332474810886</v>
+        <v>3.593332474810916</v>
       </c>
       <c r="U2" t="n">
-        <v>0.0656691257532543</v>
+        <v>0.06566912575325484</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.4392009984782808</v>
+        <v>0.4392009984782844</v>
       </c>
       <c r="H3" t="n">
-        <v>4.241757011619186</v>
+        <v>4.241757011619221</v>
       </c>
       <c r="I3" t="n">
-        <v>15.12161332480046</v>
+        <v>15.12161332480058</v>
       </c>
       <c r="J3" t="n">
-        <v>41.49486275535372</v>
+        <v>41.49486275535406</v>
       </c>
       <c r="K3" t="n">
-        <v>70.92132965339853</v>
+        <v>70.92132965339911</v>
       </c>
       <c r="L3" t="n">
-        <v>95.36247995468112</v>
+        <v>95.3624799546819</v>
       </c>
       <c r="M3" t="n">
-        <v>111.2835161495188</v>
+        <v>111.2835161495197</v>
       </c>
       <c r="N3" t="n">
-        <v>114.2288596875595</v>
+        <v>114.2288596875605</v>
       </c>
       <c r="O3" t="n">
-        <v>104.4970901949618</v>
+        <v>104.4970901949627</v>
       </c>
       <c r="P3" t="n">
-        <v>83.868127507664</v>
+        <v>83.86812750766468</v>
       </c>
       <c r="Q3" t="n">
-        <v>56.0636221917188</v>
+        <v>56.06362219171926</v>
       </c>
       <c r="R3" t="n">
-        <v>27.26898830902871</v>
+        <v>27.26898830902893</v>
       </c>
       <c r="S3" t="n">
-        <v>8.157965914717185</v>
+        <v>8.157965914717252</v>
       </c>
       <c r="T3" t="n">
-        <v>1.770288235094473</v>
+        <v>1.770288235094488</v>
       </c>
       <c r="U3" t="n">
-        <v>0.02889480253146585</v>
+        <v>0.02889480253146609</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.368211363406439</v>
+        <v>0.368211363406442</v>
       </c>
       <c r="H4" t="n">
-        <v>3.273733758286342</v>
+        <v>3.273733758286369</v>
       </c>
       <c r="I4" t="n">
-        <v>11.07311991044091</v>
+        <v>11.07311991044101</v>
       </c>
       <c r="J4" t="n">
-        <v>26.03254339283524</v>
+        <v>26.03254339283545</v>
       </c>
       <c r="K4" t="n">
-        <v>42.77946567576627</v>
+        <v>42.77946567576662</v>
       </c>
       <c r="L4" t="n">
-        <v>54.74298761044459</v>
+        <v>54.74298761044503</v>
       </c>
       <c r="M4" t="n">
-        <v>57.71880490197479</v>
+        <v>57.71880490197526</v>
       </c>
       <c r="N4" t="n">
-        <v>56.34638072927811</v>
+        <v>56.34638072927857</v>
       </c>
       <c r="O4" t="n">
-        <v>52.04500252948469</v>
+        <v>52.04500252948512</v>
       </c>
       <c r="P4" t="n">
-        <v>44.5334907159933</v>
+        <v>44.53349071599366</v>
       </c>
       <c r="Q4" t="n">
-        <v>30.83268062124282</v>
+        <v>30.83268062124307</v>
       </c>
       <c r="R4" t="n">
-        <v>16.55612184916588</v>
+        <v>16.55612184916601</v>
       </c>
       <c r="S4" t="n">
-        <v>6.416919851364939</v>
+        <v>6.416919851364992</v>
       </c>
       <c r="T4" t="n">
-        <v>1.573266734554784</v>
+        <v>1.573266734554797</v>
       </c>
       <c r="U4" t="n">
-        <v>0.02008425618580579</v>
+        <v>0.02008425618580595</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31293,7 +31293,7 @@
         <v>120.0599046221887</v>
       </c>
       <c r="L5" t="n">
-        <v>148.9449281068053</v>
+        <v>148.9449281068054</v>
       </c>
       <c r="M5" t="n">
         <v>165.7299311340341</v>
@@ -31302,7 +31302,7 @@
         <v>168.4116146850913</v>
       </c>
       <c r="O5" t="n">
-        <v>159.0263121559844</v>
+        <v>159.0263121559843</v>
       </c>
       <c r="P5" t="n">
         <v>135.7252782213693</v>
@@ -31317,7 +31317,7 @@
         <v>21.50773917103957</v>
       </c>
       <c r="T5" t="n">
-        <v>4.131656751342872</v>
+        <v>4.131656751342871</v>
       </c>
       <c r="U5" t="n">
         <v>0.07550714794001816</v>
@@ -31387,7 +31387,7 @@
         <v>96.43257830122204</v>
       </c>
       <c r="Q6" t="n">
-        <v>64.46262480772582</v>
+        <v>64.4626248077258</v>
       </c>
       <c r="R6" t="n">
         <v>31.35420961992052</v>
@@ -31436,7 +31436,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.4233738392435961</v>
+        <v>0.423373839243596</v>
       </c>
       <c r="H7" t="n">
         <v>3.764178316183975</v>
@@ -31454,7 +31454,7 @@
         <v>62.94414333627064</v>
       </c>
       <c r="M7" t="n">
-        <v>66.36577372797569</v>
+        <v>66.36577372797568</v>
       </c>
       <c r="N7" t="n">
         <v>64.78774396352233</v>
@@ -31466,13 +31466,13 @@
         <v>51.20514142997091</v>
       </c>
       <c r="Q7" t="n">
-        <v>35.45178575702512</v>
+        <v>35.45178575702513</v>
       </c>
       <c r="R7" t="n">
         <v>19.03642735362569</v>
       </c>
       <c r="S7" t="n">
-        <v>7.378251362090666</v>
+        <v>7.378251362090667</v>
       </c>
       <c r="T7" t="n">
         <v>1.808960949495364</v>
@@ -31524,7 +31524,7 @@
         <v>40.41950923629976</v>
       </c>
       <c r="J8" t="n">
-        <v>88.98399123388616</v>
+        <v>88.98399123388617</v>
       </c>
       <c r="K8" t="n">
         <v>133.3639361394712</v>
@@ -31548,7 +31548,7 @@
         <v>113.2183977184739</v>
       </c>
       <c r="R8" t="n">
-        <v>65.85829705115658</v>
+        <v>65.8582970511566</v>
       </c>
       <c r="S8" t="n">
         <v>23.89104641001701</v>
@@ -31557,7 +31557,7 @@
         <v>4.589492294453073</v>
       </c>
       <c r="U8" t="n">
-        <v>0.08387421668903383</v>
+        <v>0.08387421668903385</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31597,7 +31597,7 @@
         <v>0.560958278245113</v>
       </c>
       <c r="H9" t="n">
-        <v>5.417676003051487</v>
+        <v>5.417676003051488</v>
       </c>
       <c r="I9" t="n">
         <v>19.31369510624622</v>
@@ -31630,7 +31630,7 @@
         <v>34.82862011770975</v>
       </c>
       <c r="S9" t="n">
-        <v>10.4195539840704</v>
+        <v>10.41955398407041</v>
       </c>
       <c r="T9" t="n">
         <v>2.261055516259907</v>
@@ -31682,7 +31682,7 @@
         <v>14.14286010570121</v>
       </c>
       <c r="J10" t="n">
-        <v>33.24940237062825</v>
+        <v>33.24940237062826</v>
       </c>
       <c r="K10" t="n">
         <v>54.63898190775737</v>
@@ -31697,13 +31697,13 @@
         <v>71.96697828272931</v>
       </c>
       <c r="O10" t="n">
-        <v>66.47315263707449</v>
+        <v>66.47315263707451</v>
       </c>
       <c r="P10" t="n">
-        <v>56.87926567298935</v>
+        <v>56.87926567298936</v>
       </c>
       <c r="Q10" t="n">
-        <v>39.38025527013718</v>
+        <v>39.38025527013719</v>
       </c>
       <c r="R10" t="n">
         <v>21.14588454739968</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
         <v>44.86703772844668</v>
@@ -31761,40 +31761,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31913,43 +31913,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
         <v>0.1071911508780295</v>
@@ -32809,7 +32809,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
@@ -33046,7 +33046,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
@@ -33994,7 +33994,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34389,7 +34389,7 @@
         <v>629.9949819746414</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781694</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R44" t="n">
         <v>275.1987363563569</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
         <v>159.2338966127272</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K13" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M13" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N13" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -36457,7 +36457,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36694,7 +36694,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -37642,7 +37642,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -38037,10 +38037,10 @@
         <v>398.7619862193719</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037199</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222479</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
